--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0013</v>
+        <v>0.06455</v>
       </c>
       <c r="E2">
-        <v>0.06079999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="G2">
-        <v>0.1414689416155692</v>
+        <v>0.1845045915901402</v>
       </c>
       <c r="H2">
-        <v>0.1414689416155692</v>
+        <v>0.1845045915901402</v>
       </c>
       <c r="I2">
-        <v>0.1266809957400001</v>
+        <v>0.2040502658289028</v>
       </c>
       <c r="J2">
-        <v>0.1266809957400001</v>
+        <v>0.2012757890561131</v>
       </c>
       <c r="K2">
-        <v>83.08</v>
+        <v>205.24</v>
       </c>
       <c r="L2">
-        <v>0.1107438016528925</v>
+        <v>0.1983953600773321</v>
       </c>
       <c r="M2">
-        <v>42.17</v>
+        <v>96.11</v>
       </c>
       <c r="N2">
-        <v>0.06162501826684202</v>
+        <v>0.05817092361699552</v>
       </c>
       <c r="O2">
-        <v>0.5075830524795378</v>
+        <v>0.4682810368349249</v>
       </c>
       <c r="P2">
-        <v>42.17</v>
+        <v>96.11</v>
       </c>
       <c r="Q2">
-        <v>0.06162501826684202</v>
+        <v>0.05817092361699552</v>
       </c>
       <c r="R2">
-        <v>0.5075830524795378</v>
+        <v>0.4682810368349249</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>188.11</v>
+        <v>401.46</v>
       </c>
       <c r="V2">
-        <v>0.2748940523162355</v>
+        <v>0.242985110761409</v>
       </c>
       <c r="W2">
-        <v>0.09987840889352093</v>
+        <v>0.1203408633377023</v>
       </c>
       <c r="X2">
-        <v>0.05087419134514</v>
+        <v>0.04369042505066997</v>
       </c>
       <c r="Y2">
-        <v>0.04900421754838093</v>
+        <v>0.07665043828703229</v>
       </c>
       <c r="Z2">
-        <v>1.071332302213674</v>
+        <v>0.7190369284021324</v>
       </c>
       <c r="AA2">
-        <v>0.1478034761187902</v>
+        <v>0.1251177720990046</v>
       </c>
       <c r="AB2">
-        <v>0.04815481259398817</v>
+        <v>0.04365772070924025</v>
       </c>
       <c r="AC2">
-        <v>0.0982515723393628</v>
+        <v>0.08650764696745342</v>
       </c>
       <c r="AD2">
-        <v>69.38</v>
+        <v>50.439</v>
       </c>
       <c r="AE2">
-        <v>2.419584979259475</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>71.79958497925948</v>
+        <v>50.439</v>
       </c>
       <c r="AG2">
-        <v>-116.3104150207405</v>
+        <v>-351.021</v>
       </c>
       <c r="AH2">
-        <v>0.09496048722368892</v>
+        <v>0.02962401307617175</v>
       </c>
       <c r="AI2">
-        <v>0.07796679046269366</v>
+        <v>0.02884966817076093</v>
       </c>
       <c r="AJ2">
-        <v>-0.204775612258784</v>
+        <v>-0.2697714918546948</v>
       </c>
       <c r="AK2">
-        <v>-0.1587228003848233</v>
+        <v>-0.2606180659138645</v>
       </c>
       <c r="AL2">
-        <v>0.573</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="AM2">
-        <v>0.573</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.6881571116841896</v>
+        <v>0.2245415815270377</v>
       </c>
       <c r="AO2">
-        <v>165.0261780104712</v>
+        <v>244.8839907192575</v>
       </c>
       <c r="AP2">
-        <v>-1.153644267216232</v>
+        <v>-1.562656089319818</v>
       </c>
       <c r="AQ2">
-        <v>165.0261780104712</v>
+        <v>244.8839907192575</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>National Takaful Company (Watania) P.J.S.C. (ADX:WATANIA)</t>
+          <t>Abu Dhabi National Takaful Company PSC (ADX:TKFL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.155</v>
+        <v>0.122</v>
       </c>
       <c r="E3">
-        <v>0.216</v>
+        <v>0.141</v>
       </c>
       <c r="G3">
-        <v>0.06477064220183486</v>
+        <v>0.2801302931596091</v>
       </c>
       <c r="H3">
-        <v>0.06477064220183486</v>
+        <v>0.2801302931596091</v>
       </c>
       <c r="I3">
-        <v>0.06862385321100918</v>
+        <v>0.2882736156351792</v>
       </c>
       <c r="J3">
-        <v>0.06862385321100918</v>
+        <v>0.2882736156351792</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>21.2</v>
       </c>
       <c r="L3">
-        <v>0.06605504587155964</v>
+        <v>0.3452768729641694</v>
       </c>
       <c r="M3">
-        <v>2.04</v>
+        <v>6.81</v>
       </c>
       <c r="N3">
-        <v>0.0710801393728223</v>
+        <v>0.06412429378531073</v>
       </c>
       <c r="O3">
-        <v>0.5666666666666667</v>
+        <v>0.3212264150943396</v>
       </c>
       <c r="P3">
-        <v>2.04</v>
+        <v>6.81</v>
       </c>
       <c r="Q3">
-        <v>0.0710801393728223</v>
+        <v>0.06412429378531073</v>
       </c>
       <c r="R3">
-        <v>0.5666666666666667</v>
+        <v>0.3212264150943396</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7.69</v>
+        <v>47.8</v>
       </c>
       <c r="V3">
-        <v>0.2679442508710801</v>
+        <v>0.4500941619585687</v>
       </c>
       <c r="W3">
-        <v>0.1428571428571429</v>
+        <v>0.2032598274209012</v>
       </c>
       <c r="X3">
-        <v>0.05120097939706304</v>
+        <v>0.04385890027795708</v>
       </c>
       <c r="Y3">
-        <v>0.09165616346007983</v>
+        <v>0.1594009271429442</v>
       </c>
       <c r="Z3">
-        <v>3.126792885829031</v>
+        <v>0.9470923954959124</v>
       </c>
       <c r="AA3">
-        <v>0.2145725760183592</v>
+        <v>0.2730217491901897</v>
       </c>
       <c r="AB3">
-        <v>0.04795837431761472</v>
+        <v>0.04349834114303699</v>
       </c>
       <c r="AC3">
-        <v>0.1666142017007445</v>
+        <v>0.2295234080471527</v>
       </c>
       <c r="AD3">
-        <v>3.21</v>
+        <v>1.28</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.21</v>
+        <v>1.28</v>
       </c>
       <c r="AG3">
-        <v>-4.48</v>
+        <v>-46.52</v>
       </c>
       <c r="AH3">
-        <v>0.1005954246317769</v>
+        <v>0.01190919240788984</v>
       </c>
       <c r="AI3">
-        <v>0.1076819859107682</v>
+        <v>0.01089547156962887</v>
       </c>
       <c r="AJ3">
-        <v>-0.184971098265896</v>
+        <v>-0.7794906166219837</v>
       </c>
       <c r="AK3">
-        <v>-0.2025316455696203</v>
+        <v>-0.6676234213547645</v>
       </c>
       <c r="AL3">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.8209718670076726</v>
-      </c>
-      <c r="AO3">
-        <v>49.21052631578948</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="AP3">
-        <v>-1.145780051150895</v>
-      </c>
-      <c r="AQ3">
-        <v>49.21052631578948</v>
+        <v>-2.528260869565218</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Dhafra Insurance Company P.S.C. (ADX:DHAFRA)</t>
+          <t>Abu Dhabi National Insurance Company PJSC (ADX:ADNIC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +853,43 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0833</v>
-      </c>
-      <c r="E4">
-        <v>-0.0194</v>
+        <v>0.0138</v>
       </c>
       <c r="G4">
-        <v>0.3406374501992032</v>
+        <v>0.1852585258525853</v>
       </c>
       <c r="H4">
-        <v>0.3406374501992032</v>
+        <v>0.1852585258525853</v>
       </c>
       <c r="I4">
-        <v>0.3525896414342629</v>
+        <v>0.2299229922992299</v>
       </c>
       <c r="J4">
-        <v>0.3525896414342629</v>
+        <v>0.2299003397876733</v>
       </c>
       <c r="K4">
-        <v>15.4</v>
+        <v>101.5</v>
       </c>
       <c r="L4">
-        <v>0.3067729083665339</v>
+        <v>0.2233223322332233</v>
       </c>
       <c r="M4">
-        <v>9.529999999999999</v>
+        <v>39.4</v>
       </c>
       <c r="N4">
-        <v>0.1061247216035635</v>
+        <v>0.04977890082122552</v>
       </c>
       <c r="O4">
-        <v>0.6188311688311687</v>
+        <v>0.3881773399014778</v>
       </c>
       <c r="P4">
-        <v>9.529999999999999</v>
+        <v>39.4</v>
       </c>
       <c r="Q4">
-        <v>0.1061247216035635</v>
+        <v>0.04977890082122552</v>
       </c>
       <c r="R4">
-        <v>0.6188311688311687</v>
+        <v>0.3881773399014778</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +898,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>21.9</v>
+        <v>160.4</v>
       </c>
       <c r="V4">
-        <v>0.2438752783964365</v>
+        <v>0.2026531901452938</v>
       </c>
       <c r="W4">
-        <v>0.1518737672583826</v>
+        <v>0.1686887153066312</v>
       </c>
       <c r="X4">
-        <v>0.04999577368859585</v>
+        <v>0.04367247330410431</v>
       </c>
       <c r="Y4">
-        <v>0.1018779935697868</v>
+        <v>0.1250162420025269</v>
       </c>
       <c r="Z4">
-        <v>0.516248457424928</v>
+        <v>0.9695172678598092</v>
       </c>
       <c r="AA4">
-        <v>0.1820238584944467</v>
+        <v>0.2228923493109868</v>
       </c>
       <c r="AB4">
-        <v>0.04916713129969701</v>
+        <v>0.04367247330410431</v>
       </c>
       <c r="AC4">
-        <v>0.1328567271947497</v>
+        <v>0.1792198760068825</v>
       </c>
       <c r="AD4">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-19.75</v>
+        <v>-160.4</v>
       </c>
       <c r="AH4">
-        <v>0.02338227297444263</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01950113378684807</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.2819414703783013</v>
+        <v>-0.2541594042148629</v>
       </c>
       <c r="AK4">
-        <v>-0.22354272778721</v>
+        <v>-0.3298375488381657</v>
       </c>
       <c r="AL4">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.1207865168539326</v>
-      </c>
-      <c r="AO4">
-        <v>361.2244897959183</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-1.109550561797753</v>
-      </c>
-      <c r="AQ4">
-        <v>361.2244897959183</v>
+        <v>-1.47970479704797</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abu Dhabi National Insurance Company PJSC (ADX:ADNIC)</t>
+          <t>Emirates Insurance Company P.J.S.C. (ADX:EIC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,46 +978,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0013</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="E5">
-        <v>0.141</v>
+        <v>0.147</v>
       </c>
       <c r="G5">
-        <v>0.1689830134568718</v>
+        <v>0.2182825484764543</v>
       </c>
       <c r="H5">
-        <v>0.1689830134568718</v>
+        <v>0.2182825484764543</v>
       </c>
       <c r="I5">
-        <v>0.14295168762409</v>
+        <v>0.2321329639889197</v>
       </c>
       <c r="J5">
-        <v>0.14295168762409</v>
+        <v>0.2321329639889197</v>
       </c>
       <c r="K5">
-        <v>57.5</v>
+        <v>42.2</v>
       </c>
       <c r="L5">
-        <v>0.1268475623207589</v>
+        <v>0.2337950138504155</v>
       </c>
       <c r="M5">
-        <v>30.6</v>
+        <v>24.6</v>
       </c>
       <c r="N5">
-        <v>0.06572164948453608</v>
+        <v>0.08482758620689655</v>
       </c>
       <c r="O5">
-        <v>0.5321739130434783</v>
+        <v>0.5829383886255924</v>
       </c>
       <c r="P5">
-        <v>30.6</v>
+        <v>24.6</v>
       </c>
       <c r="Q5">
-        <v>0.06572164948453608</v>
+        <v>0.08482758620689655</v>
       </c>
       <c r="R5">
-        <v>0.5321739130434783</v>
+        <v>0.5829383886255924</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,55 +1026,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>136.1</v>
+        <v>48.2</v>
       </c>
       <c r="V5">
-        <v>0.2923109965635738</v>
+        <v>0.1662068965517242</v>
       </c>
       <c r="W5">
-        <v>0.09987840889352093</v>
+        <v>0.1347381864623244</v>
       </c>
       <c r="X5">
-        <v>0.04976145338090282</v>
+        <v>0.04367247330410431</v>
       </c>
       <c r="Y5">
-        <v>0.05011695551261811</v>
+        <v>0.0910657131582201</v>
       </c>
       <c r="Z5">
-        <v>1.03394005747913</v>
+        <v>0.6230583362098723</v>
       </c>
       <c r="AA5">
-        <v>0.1478034761187902</v>
+        <v>0.1446323783224025</v>
       </c>
       <c r="AB5">
-        <v>0.04955190377942739</v>
+        <v>0.04367247330410431</v>
       </c>
       <c r="AC5">
-        <v>0.0982515723393628</v>
+        <v>0.1009599050182982</v>
       </c>
       <c r="AD5">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-132.91</v>
+        <v>-48.2</v>
       </c>
       <c r="AH5">
-        <v>0.006804752661106252</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.005273686124749954</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.3995010370014127</v>
+        <v>-0.1993382961124897</v>
       </c>
       <c r="AK5">
-        <v>-0.283517139870731</v>
+        <v>-0.2068669527896996</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1098,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.04656934306569343</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-1.94029197080292</v>
+        <v>-1.105504587155963</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Union Insurance Company P.J.S.C. (ADX:UNION)</t>
+          <t>Dubai National Insurance &amp; Reinsurance (P.S.C.) (DFM:DNIR)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1121,118 +1106,115 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.122</v>
+        <v>0.063</v>
       </c>
       <c r="E6">
-        <v>-0.269</v>
+        <v>0.06709999999999999</v>
       </c>
       <c r="G6">
-        <v>0.03378378378378379</v>
+        <v>0.3423799582463465</v>
       </c>
       <c r="H6">
-        <v>0.03378378378378379</v>
+        <v>0.3423799582463465</v>
       </c>
       <c r="I6">
-        <v>0.0521477703014122</v>
+        <v>0.3444676409185804</v>
       </c>
       <c r="J6">
-        <v>0.0521477703014122</v>
+        <v>0.3444676409185804</v>
       </c>
       <c r="K6">
-        <v>4.73</v>
+        <v>16.5</v>
       </c>
       <c r="L6">
-        <v>0.03551051051051052</v>
+        <v>0.3444676409185804</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.08136094674556214</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>11</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.08136094674556214</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>18.4</v>
+        <v>41.5</v>
       </c>
       <c r="V6">
-        <v>0.272189349112426</v>
+        <v>0.3069526627218935</v>
       </c>
       <c r="W6">
-        <v>0.05418098510882017</v>
+        <v>0.1097804391217565</v>
       </c>
       <c r="X6">
-        <v>0.05087419134514</v>
+        <v>0.04367247330410431</v>
       </c>
       <c r="Y6">
-        <v>0.00330679376368017</v>
+        <v>0.06610796581765216</v>
       </c>
       <c r="Z6">
-        <v>1.680553841341152</v>
+        <v>0.4042194092827003</v>
       </c>
       <c r="AA6">
-        <v>0.08763713569741434</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="AB6">
-        <v>0.04815481259398817</v>
+        <v>0.04367247330410431</v>
       </c>
       <c r="AC6">
-        <v>0.03948232310342617</v>
+        <v>0.0955680330250096</v>
       </c>
       <c r="AD6">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.419584979259475</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.949584979259475</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-12.45041502074052</v>
+        <v>-41.5</v>
       </c>
       <c r="AH6">
-        <v>0.08089216249061394</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.06239759701684736</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.2257571843092354</v>
+        <v>-0.4429028815368197</v>
       </c>
       <c r="AK6">
-        <v>-0.1617996383488791</v>
+        <v>-0.4550438596491229</v>
       </c>
       <c r="AL6">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.4119019836639439</v>
-      </c>
-      <c r="AO6">
-        <v>14.44196428571428</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>-1.452790550844868</v>
-      </c>
-      <c r="AQ6">
-        <v>14.44196428571428</v>
+        <v>-2.426900584795321</v>
       </c>
     </row>
     <row r="7">
@@ -1252,25 +1234,28 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0187</v>
+        <v>-0.0463</v>
+      </c>
+      <c r="E7">
+        <v>0.375</v>
       </c>
       <c r="G7">
-        <v>0.07457627118644068</v>
+        <v>0.1525114155251142</v>
       </c>
       <c r="H7">
-        <v>0.07457627118644068</v>
+        <v>0.1525114155251142</v>
       </c>
       <c r="I7">
-        <v>0.03135593220338983</v>
+        <v>0.1940639269406393</v>
       </c>
       <c r="J7">
-        <v>0.03135593220338983</v>
+        <v>0.1940639269406393</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="L7">
-        <v>0.03135593220338983</v>
+        <v>0.06963470319634703</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1294,55 +1279,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>4.02</v>
+        <v>3.26</v>
       </c>
       <c r="V7">
-        <v>0.1233128834355828</v>
+        <v>0.09209039548022599</v>
       </c>
       <c r="W7">
-        <v>0.08078602620087337</v>
+        <v>0.130901287553648</v>
       </c>
       <c r="X7">
-        <v>0.07376583013311953</v>
+        <v>0.06464550786254084</v>
       </c>
       <c r="Y7">
-        <v>0.007020196067753837</v>
+        <v>0.06625577969110721</v>
       </c>
       <c r="Z7">
-        <v>0.8689248895434464</v>
+        <v>0.5719509010185426</v>
       </c>
       <c r="AA7">
-        <v>0.0272459499263623</v>
+        <v>0.1109950378688953</v>
       </c>
       <c r="AB7">
-        <v>0.03883834320677768</v>
+        <v>0.03354777695899804</v>
       </c>
       <c r="AC7">
-        <v>-0.01159239328041538</v>
+        <v>0.07744726090989723</v>
       </c>
       <c r="AD7">
-        <v>57.3</v>
+        <v>48</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>57.3</v>
+        <v>48</v>
       </c>
       <c r="AG7">
-        <v>53.28</v>
+        <v>44.74</v>
       </c>
       <c r="AH7">
-        <v>0.6373748609566184</v>
+        <v>0.5755395683453237</v>
       </c>
       <c r="AI7">
-        <v>0.7109181141439206</v>
+        <v>0.6477732793522267</v>
       </c>
       <c r="AJ7">
-        <v>0.6204005589194225</v>
+        <v>0.5582730222111305</v>
       </c>
       <c r="AK7">
-        <v>0.6957430138417342</v>
+        <v>0.6315640880858272</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1351,10 +1336,397 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>28.08823529411764</v>
+        <v>5.542725173210162</v>
       </c>
       <c r="AP7">
-        <v>26.11764705882353</v>
+        <v>5.166281755196305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Al Ain Ahlia Insurance Co. P.S.C. (ADX:ALAIN)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.0576</v>
+      </c>
+      <c r="E8">
+        <v>0.157</v>
+      </c>
+      <c r="G8">
+        <v>0.1924144310823312</v>
+      </c>
+      <c r="H8">
+        <v>0.1924144310823312</v>
+      </c>
+      <c r="I8">
+        <v>0.1905642923219242</v>
+      </c>
+      <c r="J8">
+        <v>0.1905642923219242</v>
+      </c>
+      <c r="K8">
+        <v>20.2</v>
+      </c>
+      <c r="L8">
+        <v>0.1868640148011101</v>
+      </c>
+      <c r="M8">
+        <v>14.3</v>
+      </c>
+      <c r="N8">
+        <v>0.09463931171409663</v>
+      </c>
+      <c r="O8">
+        <v>0.707920792079208</v>
+      </c>
+      <c r="P8">
+        <v>14.3</v>
+      </c>
+      <c r="Q8">
+        <v>0.09463931171409663</v>
+      </c>
+      <c r="R8">
+        <v>0.707920792079208</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>41.7</v>
+      </c>
+      <c r="V8">
+        <v>0.2759761747187294</v>
+      </c>
+      <c r="W8">
+        <v>0.06175481504127178</v>
+      </c>
+      <c r="X8">
+        <v>0.04367247330410431</v>
+      </c>
+      <c r="Y8">
+        <v>0.01808234173716746</v>
+      </c>
+      <c r="Z8">
+        <v>0.3628734474655924</v>
+      </c>
+      <c r="AA8">
+        <v>0.06915072171869754</v>
+      </c>
+      <c r="AB8">
+        <v>0.04367247330410431</v>
+      </c>
+      <c r="AC8">
+        <v>0.02547824841459323</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>-41.7</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.3811700182815357</v>
+      </c>
+      <c r="AK8">
+        <v>-0.1496769562096195</v>
+      </c>
+      <c r="AL8">
+        <v>0.333</v>
+      </c>
+      <c r="AM8">
+        <v>0.333</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>61.86186186186186</v>
+      </c>
+      <c r="AP8">
+        <v>-1.648221343873518</v>
+      </c>
+      <c r="AQ8">
+        <v>61.86186186186186</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arabian Scandinavian Insurance Company (PLC) - Takaful - ASCANA Insurance (DFM:ASCANA)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.0665</v>
+      </c>
+      <c r="E9">
+        <v>-0.28</v>
+      </c>
+      <c r="G9">
+        <v>-0.04462540716612378</v>
+      </c>
+      <c r="H9">
+        <v>-0.04462540716612378</v>
+      </c>
+      <c r="I9">
+        <v>0.07882736156351791</v>
+      </c>
+      <c r="J9">
+        <v>0.07026058631921824</v>
+      </c>
+      <c r="K9">
+        <v>2.15</v>
+      </c>
+      <c r="L9">
+        <v>0.07003257328990228</v>
+      </c>
+      <c r="M9">
+        <v>-0</v>
+      </c>
+      <c r="N9">
+        <v>-0</v>
+      </c>
+      <c r="O9">
+        <v>-0</v>
+      </c>
+      <c r="P9">
+        <v>-0</v>
+      </c>
+      <c r="Q9">
+        <v>-0</v>
+      </c>
+      <c r="R9">
+        <v>-0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>46.8</v>
+      </c>
+      <c r="V9">
+        <v>0.5872020075282308</v>
+      </c>
+      <c r="W9">
+        <v>0.02523474178403756</v>
+      </c>
+      <c r="X9">
+        <v>0.04370837679723563</v>
+      </c>
+      <c r="Y9">
+        <v>-0.01847363501319808</v>
+      </c>
+      <c r="Z9">
+        <v>0.6409185803757828</v>
+      </c>
+      <c r="AA9">
+        <v>0.0450313152400835</v>
+      </c>
+      <c r="AB9">
+        <v>0.04364296811437619</v>
+      </c>
+      <c r="AC9">
+        <v>0.001388347125707318</v>
+      </c>
+      <c r="AD9">
+        <v>0.185</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0.185</v>
+      </c>
+      <c r="AG9">
+        <v>-46.61499999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.002315829004193528</v>
+      </c>
+      <c r="AI9">
+        <v>0.00211223382999372</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.408946652561583</v>
+      </c>
+      <c r="AK9">
+        <v>-1.142944710064974</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0.07283464566929133</v>
+      </c>
+      <c r="AP9">
+        <v>-18.35236220472441</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Union Insurance Company P.J.S.C. (ADX:UNION)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.07679999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.07026022304832714</v>
+      </c>
+      <c r="H10">
+        <v>0.07026022304832714</v>
+      </c>
+      <c r="I10">
+        <v>-0.009572490706319704</v>
+      </c>
+      <c r="J10">
+        <v>-0.009572490706319704</v>
+      </c>
+      <c r="K10">
+        <v>-1.56</v>
+      </c>
+      <c r="L10">
+        <v>-0.01449814126394052</v>
+      </c>
+      <c r="M10">
+        <v>-0</v>
+      </c>
+      <c r="N10">
+        <v>-0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>-0</v>
+      </c>
+      <c r="Q10">
+        <v>-0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>11.8</v>
+      </c>
+      <c r="V10">
+        <v>0.1870047543581617</v>
+      </c>
+      <c r="W10">
+        <v>-0.0174496644295302</v>
+      </c>
+      <c r="X10">
+        <v>0.04391122853467783</v>
+      </c>
+      <c r="Y10">
+        <v>-0.06136089296420803</v>
+      </c>
+      <c r="Z10">
+        <v>1.443713940695022</v>
+      </c>
+      <c r="AA10">
+        <v>-0.01381993827988729</v>
+      </c>
+      <c r="AB10">
+        <v>0.04347880032064406</v>
+      </c>
+      <c r="AC10">
+        <v>-0.05729873860053135</v>
+      </c>
+      <c r="AD10">
+        <v>0.974</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.974</v>
+      </c>
+      <c r="AG10">
+        <v>-10.826</v>
+      </c>
+      <c r="AH10">
+        <v>0.01520117364297531</v>
+      </c>
+      <c r="AI10">
+        <v>0.01103382649477762</v>
+      </c>
+      <c r="AJ10">
+        <v>-0.2071010444963079</v>
+      </c>
+      <c r="AK10">
+        <v>-0.1415644532782384</v>
+      </c>
+      <c r="AL10">
+        <v>0.529</v>
+      </c>
+      <c r="AM10">
+        <v>0.529</v>
+      </c>
+      <c r="AN10">
+        <v>1.543581616481775</v>
+      </c>
+      <c r="AO10">
+        <v>-1.947069943289225</v>
+      </c>
+      <c r="AP10">
+        <v>-17.15689381933439</v>
+      </c>
+      <c r="AQ10">
+        <v>-1.947069943289225</v>
       </c>
     </row>
   </sheetData>
